--- a/temporary_files/logit_highu_base.xlsx
+++ b/temporary_files/logit_highu_base.xlsx
@@ -451,7 +451,7 @@
         <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
         <v>0.82</v>
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="C4" t="n">
         <v>0.28</v>
@@ -567,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="C10" t="n">
         <v>0.28</v>
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C17" t="n">
         <v>0.39</v>
